--- a/UI/bin/Debug/Excel/ReceiptTicket.xlsx
+++ b/UI/bin/Debug/Excel/ReceiptTicket.xlsx
@@ -4,22 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20415" windowHeight="10575"/>
+    <workbookView windowWidth="21495" windowHeight="10395"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="正品入库分表" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">正品入库分表!$A$1:$J$15</definedName>
+    <definedName name="包装号">OFFSET([1]基础数据!$C$1,VLOOKUP(#REF!,[1]基础数据!$G:$I,2,),,VLOOKUP(#REF!,[1]基础数据!$G:$I,3,),1)</definedName>
+    <definedName name="出库包装">OFFSET([2]基础数据!$C$1,VLOOKUP([2]出入库记录!$G1,[2]基础数据!$G$1:$I$65536,2,),,VLOOKUP([2]出入库记录!$G1,[2]基础数据!$G$1:$I$65536,3,),1)</definedName>
+    <definedName name="出库总数">SUMPRODUCT(([1]出入库记录!$G$4:$G$1145=[1]次数及费用!XEQ1)*([1]出入库记录!$H$4:$H$1145=[1]次数及费用!XER1)*([1]出入库记录!$F$4:$F$1145&lt;=[1]次数及费用!XEO1)*([1]出入库记录!$N$4:$N$1145))</definedName>
+    <definedName name="货物名称">OFFSET([1]基础数据!$C$2,,,COUNTA([1]基础数据!A:A),)</definedName>
+    <definedName name="库存不良品状态">[3]基础数据!$G$3:$G$9</definedName>
+    <definedName name="库存良品状态">[3]基础数据!$F$2:$F$14</definedName>
+    <definedName name="使用单位">[3]基础数据!$H$2:$H$30</definedName>
+    <definedName name="新品品名">[3]基础数据!$A$2:$A$466</definedName>
+    <definedName name="制表人">[3]基础数据!$I$2:$I$8</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
-  <si>
-    <t>#SET TABLE COLUMNS 10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>生产物流部WMS入库单</t>
   </si>
@@ -42,9 +54,6 @@
     <t>制表人：</t>
   </si>
   <si>
-    <t>@ticket.PersonName</t>
-  </si>
-  <si>
     <t>使用单位</t>
   </si>
   <si>
@@ -108,7 +117,19 @@
     <t>@item[i].RealReceiptUnitCount</t>
   </si>
   <si>
-    <t>@(item[i].RealReceiptUnitCount*item[i].UnitAmount)</t>
+    <t>@item[i].RealReceiptAmount</t>
+  </si>
+  <si>
+    <t>@item[i].Comment</t>
+  </si>
+  <si>
+    <t>送货时间：</t>
+  </si>
+  <si>
+    <t>车牌号：</t>
+  </si>
+  <si>
+    <t>送货司机：</t>
   </si>
 </sst>
 </file>
@@ -116,46 +137,81 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -165,8 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +245,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,14 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -210,16 +296,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,51 +321,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,32 +333,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,19 +361,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,19 +511,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,146 +551,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -542,7 +573,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -552,10 +585,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -576,16 +609,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,9 +631,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -655,18 +686,20 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -694,17 +727,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,22 +751,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,163 +791,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -943,32 +961,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,23 +1008,25 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,8 +1093,81 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="出入库记录"/>
+      <sheetName val="月报表"/>
+      <sheetName val="汇总表"/>
+      <sheetName val="次数及费用"/>
+      <sheetName val="基础数据"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="出入库记录"/>
+      <sheetName val="月报表"/>
+      <sheetName val="汇总表"/>
+      <sheetName val="次数汇总"/>
+      <sheetName val="基础数据"/>
+      <sheetName val="油品结算表10-13(无录入表）"/>
+      <sheetName val="次数及费用"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="录入表正品"/>
+      <sheetName val="套单表"/>
+      <sheetName val="正品出库分表"/>
+      <sheetName val="正品入库分表"/>
+      <sheetName val="返厂出库分表 "/>
+      <sheetName val="日报表"/>
+      <sheetName val="基础数据"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1081,39 +1177,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1192,160 +1288,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1356,192 +1423,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="15.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="8.25" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="36" customHeight="1" spans="1:23">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="29"/>
+    </row>
+    <row r="2" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A2" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="8" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="28" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="15" t="s">
+      <c r="I6" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="19"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="16" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="25" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25" t="s">
+      <c r="G8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="J8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:23">
+      <c r="A10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="W10" s="29"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:23">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="W11" s="29"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:23">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="W12" s="29"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:23">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:23">
+      <c r="A14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="W14" s="29"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="W15" s="29"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="W16" s="29"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="W17" s="29"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="W18" s="29"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="W19" s="29"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="W20" s="29"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="W21" s="29"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="W22" s="29"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="W34" s="29"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="W37" s="29"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="W38" s="29"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="W39" s="29"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="W40" s="29"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="W41" s="29"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="W42" s="29"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="W43" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="31">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
@@ -1551,7 +2270,17 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
@@ -1559,42 +2288,8 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.707638888888889" right="0.349305555555556" top="0.747916666666667" bottom="0.747916666666667" header="0.36875" footer="0.313888888888889"/>
+  <pageSetup paperSize="122" scale="96" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>